--- a/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29016"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_D1ECF2C03A0982CDE7AD471B468B6E50AE685E39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52CF50A6-96E7-44F8-9FC8-207BB1C40024}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_D1ECF2C03A0982CDE7AD471B468B6E50AE685E39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7225621-3DBB-4DB5-822D-1287ADA8F8CC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="4" r:id="rId1"/>
@@ -899,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921A0833-C30A-44D3-A326-B5FD31F85ACC}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1300,7 +1300,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1518,7 +1521,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_D1ECF2C03A0982CDE7AD471B468B6E50AE685E39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7225621-3DBB-4DB5-822D-1287ADA8F8CC}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E729CC798F164A7F3A49EF87242E020D5FEE71DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A71195A1-924A-4F69-8B12-8C32EC0C075F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumo" sheetId="4" r:id="rId1"/>
-    <sheet name="Form 1 - Município" sheetId="1" r:id="rId2"/>
-    <sheet name="Form 2 - UVR" sheetId="2" r:id="rId3"/>
-    <sheet name="Form 3 - Empreendimento" sheetId="3" r:id="rId4"/>
+    <sheet name="Resumo" sheetId="1" r:id="rId1"/>
+    <sheet name="Form 1 - Município" sheetId="2" r:id="rId2"/>
+    <sheet name="Form 2 - UVR" sheetId="3" r:id="rId3"/>
+    <sheet name="Form 3 - Empreendimento" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Form 1 - Município'!$A$1:$G$1</definedName>
@@ -159,6 +159,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -173,28 +189,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -202,6 +196,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -227,12 +227,6 @@
         <bgColor rgb="FF006400"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -252,9 +246,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -267,7 +259,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -279,35 +273,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="30">
     <dxf>
       <font>
         <sz val="11"/>
@@ -376,6 +370,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -473,6 +475,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -564,6 +574,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF006400"/>
           <bgColor rgb="FF006400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -896,52 +914,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921A0833-C30A-44D3-A326-B5FD31F85ACC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -949,7 +965,7 @@
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Enviado")</f>
         <v>4</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <f ca="1">B2/SUM($B2,$D2,$F2)</f>
         <v>1</v>
       </c>
@@ -957,7 +973,7 @@
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Atrasado")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f ca="1">D2/SUM($B2,$D2,$F2)</f>
         <v>0</v>
       </c>
@@ -965,16 +981,16 @@
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Sem Técnico")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <f ca="1">F2/SUM($B2,$D2,$F2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="9">
         <f ca="1">SUM(B2,D2,F2)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -982,7 +998,7 @@
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Enviado")</f>
         <v>4</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <f ca="1">B3/SUM($B3,$D3,$F3)</f>
         <v>1</v>
       </c>
@@ -990,7 +1006,7 @@
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Atrasado")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f ca="1">D3/SUM($B3,$D3,$F3)</f>
         <v>0</v>
       </c>
@@ -998,16 +1014,16 @@
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Sem Técnico")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f ca="1">F3/SUM($B3,$D3,$F3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="8">
-        <f t="shared" ref="H3:H5" ca="1" si="0">SUM(B3,D3,F3)</f>
+      <c r="H3" s="9">
+        <f ca="1">SUM(B3,D3,F3)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1015,7 +1031,7 @@
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Enviado")</f>
         <v>4</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <f ca="1">B4/SUM($B4,$D4,$F4)</f>
         <v>1</v>
       </c>
@@ -1023,7 +1039,7 @@
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Atrasado")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f ca="1">D4/SUM($B4,$D4,$F4)</f>
         <v>0</v>
       </c>
@@ -1031,278 +1047,60 @@
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Sem Técnico")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f ca="1">F4/SUM($B4,$D4,$F4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="8">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H4" s="9">
+        <f ca="1">SUM(B4,D4,F4)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <f ca="1">SUM(B2:B4)</f>
         <v>12</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f ca="1">B5/SUM($B5,$D5,$F5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <f ca="1">SUM(D2:D4)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f ca="1">D5/SUM($B5,$D5,$F5)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <f ca="1">SUM(F2:F4)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f ca="1">F5/SUM($B5,$D5,$F5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="8">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H5" s="9">
+        <f ca="1">SUM(B5,D5,F5)</f>
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="24" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="22" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1320,196 +1118,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>"Sim,Não, Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1517,13 +1321,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1541,196 +1345,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0300-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>

--- a/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F7354D6B2C1E0D5A1C696C81DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEF92E2A-DE38-42AE-A868-7BC534284F04}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F7354D6B2CDE897C408A6E81DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FAB08A5-96FF-4377-8B76-C2AE77A1432E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -917,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1556,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>

--- a/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F7354D6B2CDE897C408A6E81DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FAB08A5-96FF-4377-8B76-C2AE77A1432E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F7354D6B2CEE094F84C97481DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FD7220D-292A-42FB-9B81-6E732E3853B1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F7354D6B2CEE094F84C97481DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FD7220D-292A-42FB-9B81-6E732E3853B1}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F7354D6B2C9E8F1F60EA6381DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{021B1371-A652-4400-A456-C09F65C4810F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29128"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F7354D6B2C2E002FF4E87281DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7418C989-95A4-4737-BE6A-F2623AA45EA1}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F7354D6B2CBE836EA4486081DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E90F9659-A083-4167-B5E5-731B3280C3B5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F7354D6B2CBE836EA4486081DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E90F9659-A083-4167-B5E5-731B3280C3B5}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F7354D6B2C3E0637ECCB7981DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FBA562A-B158-4A93-B416-EE248603A344}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -917,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1556,9 +1556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F7354D6B2C8E887188C86381DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28C0D0A8-BFF3-448D-AB32-2FF274D40C40}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F7354D6B2CFE853A586A6581DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{318DA43B-2D3E-4227-B8D0-021B58C862F6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -917,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1556,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>

--- a/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F7354D6B2CFE853A586A6581DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{318DA43B-2D3E-4227-B8D0-021B58C862F6}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F7354D6B2C4E814D78097D81DC9AA9CC4624A815" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E3DD3A2-AACD-47A9-BF4F-629595257D06}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -64,7 +64,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -97,14 +97,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006400"/>
-        <bgColor rgb="00006400"/>
+        <fgColor rgb="FF993399"/>
+        <bgColor rgb="FF993399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006400"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF66"/>
         <bgColor rgb="FF66FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006400"/>
+        <bgColor rgb="00006400"/>
       </patternFill>
     </fill>
   </fills>
@@ -183,10 +195,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -196,7 +208,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -270,6 +282,19 @@
         <patternFill patternType="solid">
           <fgColor rgb="00808080"/>
           <bgColor rgb="00808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="00FFFFFF"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="0031869b"/>
+          <bgColor rgb="0031869b"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1131,7 +1156,7 @@
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1437,7 +1462,7 @@
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1743,7 +1768,7 @@
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
